--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adipoq-Adipor2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adipoq-Adipor2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Adipoq</t>
+  </si>
+  <si>
+    <t>Adipor2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Adipoq</t>
-  </si>
-  <si>
-    <t>Adipor2</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03879333333333333</v>
+        <v>0.1610523333333334</v>
       </c>
       <c r="H2">
-        <v>0.11638</v>
+        <v>0.4831570000000001</v>
       </c>
       <c r="I2">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.347942</v>
+        <v>17.21151033333333</v>
       </c>
       <c r="N2">
-        <v>52.043826</v>
+        <v>51.634531</v>
       </c>
       <c r="O2">
-        <v>0.2409061445242286</v>
+        <v>0.2331536281339202</v>
       </c>
       <c r="P2">
-        <v>0.2409061445242286</v>
+        <v>0.2331536281339202</v>
       </c>
       <c r="Q2">
-        <v>0.6729844966533333</v>
+        <v>2.771953899374112</v>
       </c>
       <c r="R2">
-        <v>6.05686046988</v>
+        <v>24.947585094367</v>
       </c>
       <c r="S2">
-        <v>0.0467638479355398</v>
+        <v>0.2331536281339202</v>
       </c>
       <c r="T2">
-        <v>0.0467638479355398</v>
+        <v>0.2331536281339202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.03879333333333333</v>
+        <v>0.1610523333333334</v>
       </c>
       <c r="H3">
-        <v>0.11638</v>
+        <v>0.4831570000000001</v>
       </c>
       <c r="I3">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>18.916596</v>
       </c>
       <c r="O3">
-        <v>0.08756320509338505</v>
+        <v>0.08541712113824763</v>
       </c>
       <c r="P3">
-        <v>0.08756320509338505</v>
+        <v>0.08541712113824761</v>
       </c>
       <c r="Q3">
-        <v>0.24461260472</v>
+        <v>1.015520641508</v>
       </c>
       <c r="R3">
-        <v>2.20151344248</v>
+        <v>9.139685773572001</v>
       </c>
       <c r="S3">
-        <v>0.01699745938744089</v>
+        <v>0.08541712113824763</v>
       </c>
       <c r="T3">
-        <v>0.01699745938744089</v>
+        <v>0.08541712113824761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.03879333333333333</v>
+        <v>0.1610523333333334</v>
       </c>
       <c r="H4">
-        <v>0.11638</v>
+        <v>0.4831570000000001</v>
       </c>
       <c r="I4">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.491011</v>
+        <v>14.09543733333333</v>
       </c>
       <c r="N4">
-        <v>31.473033</v>
+        <v>42.286312</v>
       </c>
       <c r="O4">
-        <v>0.145685811733246</v>
+        <v>0.1909421248195888</v>
       </c>
       <c r="P4">
-        <v>0.145685811733246</v>
+        <v>0.1909421248195887</v>
       </c>
       <c r="Q4">
-        <v>0.4069812867266666</v>
+        <v>2.270103071887112</v>
       </c>
       <c r="R4">
-        <v>3.66283158054</v>
+        <v>20.430927646984</v>
       </c>
       <c r="S4">
-        <v>0.02828001402668254</v>
+        <v>0.1909421248195888</v>
       </c>
       <c r="T4">
-        <v>0.02828001402668254</v>
+        <v>0.1909421248195887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.03879333333333333</v>
+        <v>0.1610523333333334</v>
       </c>
       <c r="H5">
-        <v>0.11638</v>
+        <v>0.4831570000000001</v>
       </c>
       <c r="I5">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.466491</v>
+        <v>3.696010666666667</v>
       </c>
       <c r="N5">
-        <v>13.399473</v>
+        <v>11.088032</v>
       </c>
       <c r="O5">
-        <v>0.06202494372889687</v>
+        <v>0.05006755827151809</v>
       </c>
       <c r="P5">
-        <v>0.06202494372889686</v>
+        <v>0.05006755827151808</v>
       </c>
       <c r="Q5">
-        <v>0.1732700741933333</v>
+        <v>0.5952511418915556</v>
       </c>
       <c r="R5">
-        <v>1.55943066774</v>
+        <v>5.357260277024</v>
       </c>
       <c r="S5">
-        <v>0.01204006250017766</v>
+        <v>0.05006755827151809</v>
       </c>
       <c r="T5">
-        <v>0.01204006250017766</v>
+        <v>0.05006755827151808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.03879333333333333</v>
+        <v>0.1610523333333334</v>
       </c>
       <c r="H6">
-        <v>0.11638</v>
+        <v>0.4831570000000001</v>
       </c>
       <c r="I6">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.25174333333333</v>
+        <v>24.236182</v>
       </c>
       <c r="N6">
-        <v>63.75523</v>
+        <v>72.708546</v>
       </c>
       <c r="O6">
-        <v>0.2951171701433987</v>
+        <v>0.3283124871656534</v>
       </c>
       <c r="P6">
-        <v>0.2951171701433987</v>
+        <v>0.3283124871656533</v>
       </c>
       <c r="Q6">
-        <v>0.8244259630444445</v>
+        <v>3.903293662191334</v>
       </c>
       <c r="R6">
-        <v>7.4198336674</v>
+        <v>35.12964295972201</v>
       </c>
       <c r="S6">
-        <v>0.0572871003145573</v>
+        <v>0.3283124871656534</v>
       </c>
       <c r="T6">
-        <v>0.05728710031455728</v>
+        <v>0.3283124871656533</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.03879333333333333</v>
+        <v>0.1610523333333334</v>
       </c>
       <c r="H7">
-        <v>0.11638</v>
+        <v>0.4831570000000001</v>
       </c>
       <c r="I7">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.1941164598681983</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.14848666666667</v>
+        <v>8.275797333333333</v>
       </c>
       <c r="N7">
-        <v>36.44546</v>
+        <v>24.827392</v>
       </c>
       <c r="O7">
-        <v>0.1687027247768447</v>
+        <v>0.1121070804710721</v>
       </c>
       <c r="P7">
-        <v>0.1687027247768447</v>
+        <v>0.112107080471072</v>
       </c>
       <c r="Q7">
-        <v>0.4712802927555555</v>
+        <v>1.332836470727111</v>
       </c>
       <c r="R7">
-        <v>4.2415226348</v>
+        <v>11.995528236544</v>
       </c>
       <c r="S7">
-        <v>0.03274797570380007</v>
+        <v>0.1121070804710721</v>
       </c>
       <c r="T7">
-        <v>0.03274797570380007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.1610523333333334</v>
-      </c>
-      <c r="H8">
-        <v>0.4831570000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="J8">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>17.347942</v>
-      </c>
-      <c r="N8">
-        <v>52.043826</v>
-      </c>
-      <c r="O8">
-        <v>0.2409061445242286</v>
-      </c>
-      <c r="P8">
-        <v>0.2409061445242286</v>
-      </c>
-      <c r="Q8">
-        <v>2.793926537631334</v>
-      </c>
-      <c r="R8">
-        <v>25.145338838682</v>
-      </c>
-      <c r="S8">
-        <v>0.1941422965886888</v>
-      </c>
-      <c r="T8">
-        <v>0.1941422965886888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.1610523333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.4831570000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="J9">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.305532</v>
-      </c>
-      <c r="N9">
-        <v>18.916596</v>
-      </c>
-      <c r="O9">
-        <v>0.08756320509338505</v>
-      </c>
-      <c r="P9">
-        <v>0.08756320509338505</v>
-      </c>
-      <c r="Q9">
-        <v>1.015520641508</v>
-      </c>
-      <c r="R9">
-        <v>9.139685773572001</v>
-      </c>
-      <c r="S9">
-        <v>0.07056574570594415</v>
-      </c>
-      <c r="T9">
-        <v>0.07056574570594415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.1610523333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.4831570000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="J10">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>10.491011</v>
-      </c>
-      <c r="N10">
-        <v>31.473033</v>
-      </c>
-      <c r="O10">
-        <v>0.145685811733246</v>
-      </c>
-      <c r="P10">
-        <v>0.145685811733246</v>
-      </c>
-      <c r="Q10">
-        <v>1.689601800575667</v>
-      </c>
-      <c r="R10">
-        <v>15.206416205181</v>
-      </c>
-      <c r="S10">
-        <v>0.1174057977065635</v>
-      </c>
-      <c r="T10">
-        <v>0.1174057977065635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.1610523333333334</v>
-      </c>
-      <c r="H11">
-        <v>0.4831570000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="J11">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>4.466491</v>
-      </c>
-      <c r="N11">
-        <v>13.399473</v>
-      </c>
-      <c r="O11">
-        <v>0.06202494372889687</v>
-      </c>
-      <c r="P11">
-        <v>0.06202494372889686</v>
-      </c>
-      <c r="Q11">
-        <v>0.7193387973623335</v>
-      </c>
-      <c r="R11">
-        <v>6.474049176261001</v>
-      </c>
-      <c r="S11">
-        <v>0.0499848812287192</v>
-      </c>
-      <c r="T11">
-        <v>0.04998488122871919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.1610523333333334</v>
-      </c>
-      <c r="H12">
-        <v>0.4831570000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="J12">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>21.25174333333333</v>
-      </c>
-      <c r="N12">
-        <v>63.75523</v>
-      </c>
-      <c r="O12">
-        <v>0.2951171701433987</v>
-      </c>
-      <c r="P12">
-        <v>0.2951171701433987</v>
-      </c>
-      <c r="Q12">
-        <v>3.422642851234445</v>
-      </c>
-      <c r="R12">
-        <v>30.80378566111</v>
-      </c>
-      <c r="S12">
-        <v>0.2378300698288414</v>
-      </c>
-      <c r="T12">
-        <v>0.2378300698288414</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.1610523333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.4831570000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="J13">
-        <v>0.8058835401318016</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>12.14848666666667</v>
-      </c>
-      <c r="N13">
-        <v>36.44546</v>
-      </c>
-      <c r="O13">
-        <v>0.1687027247768447</v>
-      </c>
-      <c r="P13">
-        <v>0.1687027247768447</v>
-      </c>
-      <c r="Q13">
-        <v>1.956542124135556</v>
-      </c>
-      <c r="R13">
-        <v>17.60887911722</v>
-      </c>
-      <c r="S13">
-        <v>0.1359547490730446</v>
-      </c>
-      <c r="T13">
-        <v>0.1359547490730446</v>
+        <v>0.112107080471072</v>
       </c>
     </row>
   </sheetData>
